--- a/doc/Urenverantwoording.xlsx
+++ b/doc/Urenverantwoording.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\2021-2022\Kwartiel2.1\Project Persistent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\2021-2022\Kwartiel2.1\Project Persistent\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B00BD6-0C1B-4746-BD4C-515754C1A549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC1345FF-C481-4F5A-A49E-57662C6ADE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,7 +1028,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.25</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1324,25 +1324,25 @@
                   <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>373</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>373</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>373</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>373</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>373</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>373</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>373</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="F5" s="3">
         <f>'Week (2)'!$H$41</f>
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="G5" s="3">
         <f>'Week (3)'!$H$41</f>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>6.75</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="F7" s="16">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="1"/>
@@ -3997,7 +3997,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22">
         <f>SUM(E7:F7)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22">
@@ -4027,31 +4027,31 @@
       </c>
       <c r="F9" s="20">
         <f>E9-F7</f>
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ref="G9:L9" si="2">F9-G7</f>
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H9" s="20">
         <f t="shared" si="2"/>
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="2"/>
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J9" s="20">
         <f t="shared" si="2"/>
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K9" s="20">
         <f t="shared" si="2"/>
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L9" s="20">
         <f t="shared" si="2"/>
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M9" s="11"/>
     </row>
@@ -5059,7 +5059,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5870,12 +5870,14 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
         <f>SUM(B35:G35)</f>
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -5950,7 +5952,7 @@
       </c>
       <c r="E41" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="12">
         <f t="shared" si="7"/>
@@ -5962,7 +5964,7 @@
       </c>
       <c r="H41" s="12">
         <f>SUM(B41:G41)</f>
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
     </row>
   </sheetData>
@@ -10558,12 +10560,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10810,20 +10814,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10850,12 +10855,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/Urenverantwoording.xlsx
+++ b/doc/Urenverantwoording.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\2021-2022\Kwartiel2.1\Project Persistent\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC1345FF-C481-4F5A-A49E-57662C6ADE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622D8BE2-9245-466C-89A1-F4CA547D6FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="5760" windowWidth="14400" windowHeight="7785" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -770,7 +770,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.25</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -856,7 +856,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.25</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -942,7 +942,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.25</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1028,7 +1028,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.25</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1324,25 +1324,25 @@
                   <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>372</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>372</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>372</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>372</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>372</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>372</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>372</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="F2" s="3">
         <f>'Week (2)'!$H$11</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="G2" s="3">
         <f>'Week (3)'!$H$11</f>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="M2" s="4">
         <f>SUM(E2:L2)</f>
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="F3" s="3">
         <f>'Week (2)'!$H$21</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="G3" s="3">
         <f>'Week (3)'!$H$21</f>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M5" si="0">SUM(E3:L3)</f>
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="F4" s="3">
         <f>'Week (2)'!$H$31</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="G4" s="3">
         <f>'Week (3)'!$H$31</f>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>6.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="F5" s="3">
         <f>'Week (2)'!$H$41</f>
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="G5" s="3">
         <f>'Week (3)'!$H$41</f>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="F7" s="16">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="1"/>
@@ -3997,7 +3997,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22">
         <f>SUM(E7:F7)</f>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22">
@@ -4027,31 +4027,31 @@
       </c>
       <c r="F9" s="20">
         <f>E9-F7</f>
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ref="G9:L9" si="2">F9-G7</f>
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="H9" s="20">
         <f t="shared" si="2"/>
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="2"/>
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J9" s="20">
         <f t="shared" si="2"/>
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K9" s="20">
         <f t="shared" si="2"/>
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="L9" s="20">
         <f t="shared" si="2"/>
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M9" s="11"/>
     </row>
@@ -5058,8 +5058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5396,11 +5396,13 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10">
+        <v>2.25</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="6">
         <f>SUM(B5:G5)</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5488,7 +5490,7 @@
       </c>
       <c r="F11" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="1"/>
@@ -5496,7 +5498,7 @@
       </c>
       <c r="H11" s="12">
         <f>SUM(B11:G11)</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5567,11 +5569,13 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10">
+        <v>2.25</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="6">
         <f>SUM(B15:G15)</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5650,7 +5654,7 @@
       </c>
       <c r="F21" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="3"/>
@@ -5658,7 +5662,7 @@
       </c>
       <c r="H21" s="12">
         <f>SUM(B21:G21)</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5719,11 +5723,13 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10">
+        <v>2.25</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="6">
         <f>SUM(B25:G25)</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -5802,7 +5808,7 @@
       </c>
       <c r="F31" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="5"/>
@@ -5810,7 +5816,7 @@
       </c>
       <c r="H31" s="12">
         <f>SUM(B31:G31)</f>
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5873,11 +5879,13 @@
       <c r="E35" s="10">
         <v>1</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="10">
+        <v>2.25</v>
+      </c>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
         <f>SUM(B35:G35)</f>
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -5956,7 +5964,7 @@
       </c>
       <c r="F41" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G41" s="12">
         <f t="shared" si="7"/>
@@ -5964,7 +5972,7 @@
       </c>
       <c r="H41" s="12">
         <f>SUM(B41:G41)</f>
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -10560,14 +10568,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10814,21 +10820,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10855,9 +10860,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/Urenverantwoording.xlsx
+++ b/doc/Urenverantwoording.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\2021-2022\Kwartiel2.1\Project Persistent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622D8BE2-9245-466C-89A1-F4CA547D6FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC53204E-6905-4C02-B4DD-5BC13015D219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="5760" windowWidth="14400" windowHeight="7785" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="18000" windowHeight="9810" tabRatio="835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -1028,7 +1028,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1324,25 +1324,25 @@
                   <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>363</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>363</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>363</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>363</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>363</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>363</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>363</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,7 +3517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="F5" s="3">
         <f>'Week (2)'!$H$41</f>
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="G5" s="3">
         <f>'Week (3)'!$H$41</f>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="F7" s="16">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="1"/>
@@ -3997,7 +3997,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22">
         <f>SUM(E7:F7)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22">
@@ -4027,31 +4027,31 @@
       </c>
       <c r="F9" s="20">
         <f>E9-F7</f>
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" ref="G9:L9" si="2">F9-G7</f>
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H9" s="20">
         <f t="shared" si="2"/>
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="2"/>
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J9" s="20">
         <f t="shared" si="2"/>
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K9" s="20">
         <f t="shared" si="2"/>
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L9" s="20">
         <f t="shared" si="2"/>
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M9" s="11"/>
     </row>
@@ -5058,8 +5058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5882,10 +5882,12 @@
       <c r="F35" s="10">
         <v>2.25</v>
       </c>
-      <c r="G35" s="10"/>
+      <c r="G35" s="10">
+        <v>3</v>
+      </c>
       <c r="H35" s="6">
         <f>SUM(B35:G35)</f>
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -5968,11 +5970,11 @@
       </c>
       <c r="G41" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" s="12">
         <f>SUM(B41:G41)</f>
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
@@ -10568,12 +10570,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10820,20 +10824,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10860,12 +10865,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>